--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,6 +89,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H2">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>0.10543898664</v>
+        <v>0.3357229622657778</v>
       </c>
       <c r="R2">
-        <v>0.9489508797599999</v>
+        <v>3.021506660392</v>
       </c>
       <c r="S2">
-        <v>0.248891820415785</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="T2">
-        <v>0.248891820415785</v>
+        <v>0.7324994586787993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H3">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>0.01684376304</v>
+        <v>0.04792241386199999</v>
       </c>
       <c r="R3">
-        <v>0.15159386736</v>
+        <v>0.4313017247579999</v>
       </c>
       <c r="S3">
-        <v>0.0397601966717623</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="T3">
-        <v>0.0397601966717623</v>
+        <v>0.1045598489170565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H4">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,214 +682,152 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>0.02566121306666667</v>
+        <v>0.05683826313888888</v>
       </c>
       <c r="R4">
-        <v>0.2309509176</v>
+        <v>0.5115443682499999</v>
       </c>
       <c r="S4">
-        <v>0.060574046069379</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="T4">
-        <v>0.060574046069379</v>
+        <v>0.1240129561007488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.07200033333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.216001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.141475</v>
-      </c>
-      <c r="I5">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J5">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>0.1964828850749999</v>
+        <v>0.005801666859444445</v>
       </c>
       <c r="R5">
-        <v>1.768345965675</v>
+        <v>0.052215001735</v>
       </c>
       <c r="S5">
-        <v>0.4638036129257532</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="T5">
-        <v>0.4638036129257532</v>
+        <v>0.01265840681643176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.07200033333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.216001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.141475</v>
-      </c>
-      <c r="I6">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J6">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>0.03138792644999999</v>
+        <v>0.01203989574</v>
       </c>
       <c r="R6">
-        <v>0.2824913380499999</v>
+        <v>0.10835906166</v>
       </c>
       <c r="S6">
-        <v>0.07409212097125356</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="T6">
-        <v>0.07409212097125356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.141475</v>
-      </c>
-      <c r="I7">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J7">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.01401</v>
-      </c>
-      <c r="N7">
-        <v>3.04203</v>
-      </c>
-      <c r="O7">
-        <v>0.1734522490154458</v>
-      </c>
-      <c r="P7">
-        <v>0.1734522490154458</v>
-      </c>
-      <c r="Q7">
-        <v>0.04781902158333334</v>
-      </c>
-      <c r="R7">
-        <v>0.43037119425</v>
-      </c>
-      <c r="S7">
-        <v>0.1128782029460668</v>
-      </c>
-      <c r="T7">
-        <v>0.1128782029460668</v>
+        <v>0.02626932948696365</v>
       </c>
     </row>
   </sheetData>
